--- a/Promedios réplicas todo/valores de alfa y rho todo.xlsx
+++ b/Promedios réplicas todo/valores de alfa y rho todo.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="4200" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="4200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="J23101 RFP Y pLux76 RFP" sheetId="1" r:id="rId1"/>
-    <sheet name="pTet RFP" sheetId="2" r:id="rId2"/>
-    <sheet name="pLux76 RFP" sheetId="3" r:id="rId3"/>
-    <sheet name="J23106 RFP" sheetId="4" r:id="rId4"/>
-    <sheet name="J23101 YFP" sheetId="5" r:id="rId5"/>
-    <sheet name="J23107 YFP" sheetId="6" r:id="rId6"/>
-    <sheet name="pLacI YFP" sheetId="7" r:id="rId7"/>
-    <sheet name="pLas81 YFP" sheetId="8" r:id="rId8"/>
-    <sheet name="Hoja9" sheetId="9" r:id="rId9"/>
-    <sheet name="Hoja10" sheetId="10" r:id="rId10"/>
+    <sheet name="Hoja1" sheetId="11" r:id="rId2"/>
+    <sheet name="pTet RFP" sheetId="2" r:id="rId3"/>
+    <sheet name="pLux76 RFP" sheetId="3" r:id="rId4"/>
+    <sheet name="J23106 RFP" sheetId="4" r:id="rId5"/>
+    <sheet name="J23101 YFP" sheetId="5" r:id="rId6"/>
+    <sheet name="J23107 YFP" sheetId="6" r:id="rId7"/>
+    <sheet name="pLacI YFP" sheetId="7" r:id="rId8"/>
+    <sheet name="pLas81 YFP" sheetId="8" r:id="rId9"/>
+    <sheet name="Hoja9" sheetId="9" r:id="rId10"/>
+    <sheet name="Hoja10" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="72">
   <si>
     <t xml:space="preserve">control gluc </t>
   </si>
@@ -211,6 +212,45 @@
   <si>
     <t>106-std-std glu</t>
   </si>
+  <si>
+    <t>ptet-107-std glu</t>
+  </si>
+  <si>
+    <t>ptet-107-stdgli</t>
+  </si>
+  <si>
+    <t>Factores</t>
+  </si>
+  <si>
+    <t>plásmido</t>
+  </si>
+  <si>
+    <t>réplica</t>
+  </si>
+  <si>
+    <t>colonia</t>
+  </si>
+  <si>
+    <t>Condicion</t>
+  </si>
+  <si>
+    <t>Glucosa</t>
+  </si>
+  <si>
+    <t>Glicerol</t>
+  </si>
+  <si>
+    <t>std-std-std</t>
+  </si>
+  <si>
+    <t>plux-std-std</t>
+  </si>
+  <si>
+    <t>plux-ptet-std</t>
+  </si>
+  <si>
+    <t>plux-plac-std</t>
+  </si>
 </sst>
 </file>
 
@@ -239,10 +279,155 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -251,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -268,6 +453,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,10 +1594,161 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K6"/>
+  <dimension ref="A3:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K6"/>
+      <selection activeCell="A8" sqref="A8:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,12 +1805,514 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>3</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10">
+        <v>3</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="9">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15">
+        <v>3</v>
+      </c>
+      <c r="I9" s="27">
+        <v>3</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="19"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="15">
+        <v>2</v>
+      </c>
+      <c r="D13" s="27">
+        <v>2</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24">
+        <v>2</v>
+      </c>
+      <c r="I13" s="22">
+        <v>1</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="27">
+        <v>2</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="9">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="27">
+        <v>2</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24">
+        <v>3</v>
+      </c>
+      <c r="I15" s="22">
+        <v>1</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
+      <c r="D16" s="27">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
@@ -2241,7 +3103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M82"/>
   <sheetViews>
@@ -3804,7 +4666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M154"/>
   <sheetViews>
@@ -6204,11 +7066,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -11512,12 +12374,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M6"/>
+  <dimension ref="A2:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11547,50 +12409,704 @@
         <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
+      <c r="B4">
+        <v>3204.5828160599999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12000.253115539999</v>
+      </c>
+      <c r="D4">
+        <v>1956.3197623900001</v>
+      </c>
+      <c r="E4">
+        <v>9759.8077140200003</v>
+      </c>
+      <c r="F4">
+        <v>2737.8321783699998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8051.2311659999996</v>
+      </c>
+      <c r="H4">
+        <v>21632.645425039998</v>
+      </c>
+      <c r="I4" s="1">
+        <v>52857.20821828</v>
+      </c>
+      <c r="J4">
+        <v>11271.26792049</v>
+      </c>
+      <c r="K4">
+        <v>48198.882026500003</v>
+      </c>
+      <c r="L4">
+        <v>11240.66353772</v>
+      </c>
+      <c r="M4" s="1">
+        <v>61485.609290339999</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5">
+        <v>3442.4184205800002</v>
+      </c>
+      <c r="C5">
+        <v>9352.1078442399994</v>
+      </c>
+      <c r="D5">
+        <v>3334.7019315100001</v>
+      </c>
+      <c r="E5">
+        <v>12500.375062859999</v>
+      </c>
+      <c r="F5">
+        <v>2108.99701585</v>
+      </c>
+      <c r="G5">
+        <v>11062.38604051</v>
+      </c>
+      <c r="H5">
+        <v>9553.1909875500005</v>
+      </c>
+      <c r="I5">
+        <v>52291.615192880003</v>
+      </c>
+      <c r="J5">
+        <v>17797.589481160001</v>
+      </c>
+      <c r="K5">
+        <v>70519.509750430007</v>
+      </c>
+      <c r="L5">
+        <v>10614.89612257</v>
+      </c>
+      <c r="M5">
+        <v>61209.467730969998</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
+      <c r="B6">
+        <v>2615.7659546999998</v>
+      </c>
+      <c r="C6">
+        <v>9756.0172404900004</v>
+      </c>
+      <c r="D6">
+        <v>2663.0627686900002</v>
+      </c>
+      <c r="E6">
+        <v>6748.7191499999999</v>
+      </c>
+      <c r="F6">
+        <v>2486.33403026</v>
+      </c>
+      <c r="G6">
+        <v>11470.767360559999</v>
+      </c>
+      <c r="H6">
+        <v>13091.44410594</v>
+      </c>
+      <c r="I6">
+        <v>54247.812533720004</v>
+      </c>
+      <c r="J6">
+        <v>9808.0125503800009</v>
+      </c>
+      <c r="K6">
+        <v>39887.501287539999</v>
+      </c>
+      <c r="L6">
+        <v>7556.5657652199998</v>
+      </c>
+      <c r="M6">
+        <v>62119.765940730002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-575.62808094000002</v>
+      </c>
+      <c r="C9">
+        <v>-696.68041988000004</v>
+      </c>
+      <c r="D9">
+        <v>-779.39796744</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-672.12669511000001</v>
+      </c>
+      <c r="F9">
+        <v>-466.01864490999998</v>
+      </c>
+      <c r="G9">
+        <v>-646.06693315999996</v>
+      </c>
+      <c r="H9">
+        <v>27322.193661379999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>120440.27732121</v>
+      </c>
+      <c r="J9">
+        <v>6105.90272172</v>
+      </c>
+      <c r="K9">
+        <v>44052.433576590003</v>
+      </c>
+      <c r="L9">
+        <v>3069.2953891699999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>36197.510691149997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-558.56473450999999</v>
+      </c>
+      <c r="C10">
+        <v>-879.58077933000004</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1048.4383679</v>
+      </c>
+      <c r="E10">
+        <v>-652.80854120000004</v>
+      </c>
+      <c r="F10">
+        <v>-603.84941157000003</v>
+      </c>
+      <c r="G10">
+        <v>-650.35184964999996</v>
+      </c>
+      <c r="H10">
+        <v>17834.395930660001</v>
+      </c>
+      <c r="I10">
+        <v>127010.00201462</v>
+      </c>
+      <c r="J10">
+        <v>6165.9899868000002</v>
+      </c>
+      <c r="K10">
+        <v>63885.001023780002</v>
+      </c>
+      <c r="L10">
+        <v>3646.37305539</v>
+      </c>
+      <c r="M10">
+        <v>37521.828929759999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-849.20947390000003</v>
+      </c>
+      <c r="C11">
+        <v>-674.26492860999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-681.90764944</v>
+      </c>
+      <c r="E11">
+        <v>-530.41109314000005</v>
+      </c>
+      <c r="F11">
+        <v>-626.66750920000004</v>
+      </c>
+      <c r="G11">
+        <v>-286.67149466000001</v>
+      </c>
+      <c r="H11">
+        <v>11299.355951490001</v>
+      </c>
+      <c r="I11">
+        <v>128132.32462689</v>
+      </c>
+      <c r="J11">
+        <v>7165.9726548199997</v>
+      </c>
+      <c r="K11">
+        <v>33846.18629551</v>
+      </c>
+      <c r="L11">
+        <v>2990.3610283799999</v>
+      </c>
+      <c r="M11">
+        <v>38954.847773100002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>2036.0266799799999</v>
+      </c>
+      <c r="C14">
+        <v>4220.1491296699996</v>
+      </c>
+      <c r="D14">
+        <v>1215.86772354</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3452.3778399100001</v>
+      </c>
+      <c r="F14">
+        <v>1904.6558316600001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2811.1523678200001</v>
+      </c>
+      <c r="H14">
+        <v>39194.395564940001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>133881.31268521</v>
+      </c>
+      <c r="J14">
+        <v>19655.82432453</v>
+      </c>
+      <c r="K14">
+        <v>101656.79461552</v>
+      </c>
+      <c r="L14">
+        <v>16119.31568356</v>
+      </c>
+      <c r="M14" s="1">
+        <v>127104.35167042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>2091.81245033</v>
+      </c>
+      <c r="C15">
+        <v>3469.1247073599998</v>
+      </c>
+      <c r="D15">
+        <v>2091.4656785699999</v>
+      </c>
+      <c r="E15">
+        <v>4933.56109259</v>
+      </c>
+      <c r="F15">
+        <v>1401.4228492899999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4565.3415331699998</v>
+      </c>
+      <c r="H15">
+        <v>25002.959960579999</v>
+      </c>
+      <c r="I15">
+        <v>138941.77893063001</v>
+      </c>
+      <c r="J15">
+        <v>22243.96013643</v>
+      </c>
+      <c r="K15">
+        <v>141442.74149956999</v>
+      </c>
+      <c r="L15">
+        <v>17028.530771689999</v>
+      </c>
+      <c r="M15">
+        <v>130344.43027053001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>1291.0032898899999</v>
+      </c>
+      <c r="C16">
+        <v>4688.1328015199997</v>
+      </c>
+      <c r="D16">
+        <v>1240.7905245500001</v>
+      </c>
+      <c r="E16">
+        <v>3540.7309082900001</v>
+      </c>
+      <c r="F16">
+        <v>1738.3600986700001</v>
+      </c>
+      <c r="G16">
+        <v>4241.0637949100001</v>
+      </c>
+      <c r="H16">
+        <v>18109.694790879999</v>
+      </c>
+      <c r="I16">
+        <v>118641.22286701</v>
+      </c>
+      <c r="J16">
+        <v>22249.58717554</v>
+      </c>
+      <c r="K16">
+        <v>91696.059107669993</v>
+      </c>
+      <c r="L16">
+        <v>15032.183280929999</v>
+      </c>
+      <c r="M16">
+        <v>136920.42477501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.17962653000000001</v>
+      </c>
+      <c r="C19">
+        <v>-5.805548E-2</v>
+      </c>
+      <c r="D19">
+        <v>-0.39840008999999998</v>
+      </c>
+      <c r="E19">
+        <v>-6.8866800000000006E-2</v>
+      </c>
+      <c r="F19">
+        <v>-0.17021447000000001</v>
+      </c>
+      <c r="G19">
+        <v>-8.0244490000000002E-2</v>
+      </c>
+      <c r="H19">
+        <v>1.26300751</v>
+      </c>
+      <c r="I19">
+        <v>2.2785970199999999</v>
+      </c>
+      <c r="J19">
+        <v>0.54172279000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.91397209999999995</v>
+      </c>
+      <c r="L19">
+        <v>0.27305287</v>
+      </c>
+      <c r="M19">
+        <v>0.58871516999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-0.1622594</v>
+      </c>
+      <c r="C20">
+        <v>-9.4051609999999994E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-0.31440242000000002</v>
+      </c>
+      <c r="E20">
+        <v>-5.2223119999999998E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-0.28632066</v>
+      </c>
+      <c r="G20">
+        <v>-5.8789470000000003E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.8668522299999999</v>
+      </c>
+      <c r="I20">
+        <v>2.4288789199999998</v>
+      </c>
+      <c r="J20">
+        <v>0.34645084999999998</v>
+      </c>
+      <c r="K20">
+        <v>0.90591953000000003</v>
+      </c>
+      <c r="L20">
+        <v>0.34351472</v>
+      </c>
+      <c r="M20">
+        <v>0.61300695000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-0.32465040000000001</v>
+      </c>
+      <c r="C21">
+        <v>-6.9112720000000002E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.25606142999999998</v>
+      </c>
+      <c r="E21">
+        <v>-7.8594330000000004E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-0.25204478000000002</v>
+      </c>
+      <c r="G21">
+        <v>-2.499148E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.86310997</v>
+      </c>
+      <c r="I21">
+        <v>2.3619814099999998</v>
+      </c>
+      <c r="J21">
+        <v>0.73062433999999998</v>
+      </c>
+      <c r="K21">
+        <v>0.84854114999999997</v>
+      </c>
+      <c r="L21">
+        <v>0.39573016999999999</v>
+      </c>
+      <c r="M21">
+        <v>0.62709263999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0.63534844000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.35167167999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.62150766000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.35373420999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.69568026999999999</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.34915806999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.81181704</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2.5328865700000001</v>
+      </c>
+      <c r="J24">
+        <v>1.7438876000000001</v>
+      </c>
+      <c r="K24">
+        <v>2.1091110500000001</v>
+      </c>
+      <c r="L24">
+        <v>1.4340181599999999</v>
+      </c>
+      <c r="M24">
+        <v>2.06722115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0.60765780999999996</v>
+      </c>
+      <c r="C25">
+        <v>0.37094576000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.62718220000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.39467305000000003</v>
+      </c>
+      <c r="F25">
+        <v>0.66449731000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.41269049000000002</v>
+      </c>
+      <c r="H25">
+        <v>2.6172364799999999</v>
+      </c>
+      <c r="I25">
+        <v>2.65705656</v>
+      </c>
+      <c r="J25">
+        <v>1.2498299399999999</v>
+      </c>
+      <c r="K25">
+        <v>2.0057249700000002</v>
+      </c>
+      <c r="L25">
+        <v>1.6042107800000001</v>
+      </c>
+      <c r="M25">
+        <v>2.1294815200000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>0.49354693999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.48053757000000002</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.46592612999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.52465227999999997</v>
+      </c>
+      <c r="F26">
+        <v>0.69916595000000004</v>
+      </c>
+      <c r="G26">
+        <v>0.36972799000000001</v>
+      </c>
+      <c r="H26">
+        <v>1.3833229300000001</v>
+      </c>
+      <c r="I26">
+        <v>2.1870231699999998</v>
+      </c>
+      <c r="J26">
+        <v>2.2685112900000002</v>
+      </c>
+      <c r="K26">
+        <v>2.2988669700000002</v>
+      </c>
+      <c r="L26">
+        <v>1.9892876900000001</v>
+      </c>
+      <c r="M26">
+        <v>2.2041362000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M6"/>
+  <dimension ref="A2:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11642,28 +13158,691 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
+      <c r="B4">
+        <v>3204.5828160599999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12000.253115539999</v>
+      </c>
+      <c r="D4">
+        <v>1956.3197623900001</v>
+      </c>
+      <c r="E4">
+        <v>9759.8077140200003</v>
+      </c>
+      <c r="F4">
+        <v>2737.8321783699998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8051.2311659999996</v>
+      </c>
+      <c r="H4">
+        <v>19874.41247236</v>
+      </c>
+      <c r="I4" s="1">
+        <v>55188.771946629997</v>
+      </c>
+      <c r="J4">
+        <v>11617.31793112</v>
+      </c>
+      <c r="K4">
+        <v>51468.674445869998</v>
+      </c>
+      <c r="L4">
+        <v>14526.607143990001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>49370.900052240002</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5">
+        <v>3442.4184205800002</v>
+      </c>
+      <c r="C5">
+        <v>9352.1078442399994</v>
+      </c>
+      <c r="D5">
+        <v>3334.7019315100001</v>
+      </c>
+      <c r="E5">
+        <v>12500.375062859999</v>
+      </c>
+      <c r="F5">
+        <v>2108.99701585</v>
+      </c>
+      <c r="G5">
+        <v>11062.38604051</v>
+      </c>
+      <c r="H5">
+        <v>20644.50688909</v>
+      </c>
+      <c r="I5">
+        <v>56568.815010710001</v>
+      </c>
+      <c r="J5">
+        <v>25129.716454180001</v>
+      </c>
+      <c r="K5">
+        <v>64958.774982130002</v>
+      </c>
+      <c r="L5">
+        <v>12499.393817910001</v>
+      </c>
+      <c r="M5">
+        <v>61819.067437199999</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
+      <c r="B6">
+        <v>2615.7659546999998</v>
+      </c>
+      <c r="C6">
+        <v>9756.0172404900004</v>
+      </c>
+      <c r="D6">
+        <v>2663.0627686900002</v>
+      </c>
+      <c r="E6">
+        <v>6748.7191499999999</v>
+      </c>
+      <c r="F6">
+        <v>2486.33403026</v>
+      </c>
+      <c r="G6">
+        <v>11470.767360559999</v>
+      </c>
+      <c r="H6">
+        <v>16053.500897530001</v>
+      </c>
+      <c r="I6">
+        <v>58696.703652370001</v>
+      </c>
+      <c r="J6">
+        <v>15897.643204350001</v>
+      </c>
+      <c r="K6">
+        <v>46716.27125931</v>
+      </c>
+      <c r="L6">
+        <v>12953.33913298</v>
+      </c>
+      <c r="M6">
+        <v>57550.377816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-575.62808094000002</v>
+      </c>
+      <c r="C9">
+        <v>-696.68041988000004</v>
+      </c>
+      <c r="D9">
+        <v>-779.39796744</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-672.12669511000001</v>
+      </c>
+      <c r="F9">
+        <v>-466.01864490999998</v>
+      </c>
+      <c r="G9">
+        <v>-646.06693315999996</v>
+      </c>
+      <c r="H9">
+        <v>7191.6431063199998</v>
+      </c>
+      <c r="I9" s="1">
+        <v>38687.214131510002</v>
+      </c>
+      <c r="J9">
+        <v>6521.9677338800002</v>
+      </c>
+      <c r="K9">
+        <v>53338.600456070002</v>
+      </c>
+      <c r="L9">
+        <v>2845.09582108</v>
+      </c>
+      <c r="M9" s="1">
+        <v>24718.483047580001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-558.56473450999999</v>
+      </c>
+      <c r="C10">
+        <v>-879.58077933000004</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1048.4383679</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-652.80854120000004</v>
+      </c>
+      <c r="F10">
+        <v>-603.84941157000003</v>
+      </c>
+      <c r="G10">
+        <v>-650.35184964999996</v>
+      </c>
+      <c r="H10">
+        <v>7515.6955991300001</v>
+      </c>
+      <c r="I10">
+        <v>41683.618578299996</v>
+      </c>
+      <c r="J10">
+        <v>9528.9741903100003</v>
+      </c>
+      <c r="K10">
+        <v>61153.99693632</v>
+      </c>
+      <c r="L10">
+        <v>2855.3576187100002</v>
+      </c>
+      <c r="M10">
+        <v>35227.742542849999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-849.20947390000003</v>
+      </c>
+      <c r="C11">
+        <v>-674.26492860999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-681.90764944</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-530.41109314000005</v>
+      </c>
+      <c r="F11">
+        <v>-626.66750920000004</v>
+      </c>
+      <c r="G11">
+        <v>-286.67149466000001</v>
+      </c>
+      <c r="H11">
+        <v>4259.7031471500004</v>
+      </c>
+      <c r="I11">
+        <v>45804.198666359996</v>
+      </c>
+      <c r="J11">
+        <v>4794.5709416</v>
+      </c>
+      <c r="K11">
+        <v>47692.418878960001</v>
+      </c>
+      <c r="L11">
+        <v>3114.1944983399999</v>
+      </c>
+      <c r="M11">
+        <v>37874.792832300001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>2036.0266799799999</v>
+      </c>
+      <c r="C14">
+        <v>4220.1491296699996</v>
+      </c>
+      <c r="D14">
+        <v>1215.86772354</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3452.3778399100001</v>
+      </c>
+      <c r="F14">
+        <v>1904.6558316600001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2811.1523678200001</v>
+      </c>
+      <c r="H14">
+        <v>20847.677039689999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>393594.19453916</v>
+      </c>
+      <c r="J14">
+        <v>13079.225281270001</v>
+      </c>
+      <c r="K14">
+        <v>326125.66974575003</v>
+      </c>
+      <c r="L14">
+        <v>12012.616571</v>
+      </c>
+      <c r="M14" s="1">
+        <v>265699.39034523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>2091.81245033</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3469.1247073599998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2091.4656785699999</v>
+      </c>
+      <c r="E15">
+        <v>4933.56109259</v>
+      </c>
+      <c r="F15">
+        <v>1401.4228492899999</v>
+      </c>
+      <c r="G15">
+        <v>4565.3415331699998</v>
+      </c>
+      <c r="H15">
+        <v>21227.69879214</v>
+      </c>
+      <c r="I15">
+        <v>410467.94660165999</v>
+      </c>
+      <c r="J15">
+        <v>21250.309487940001</v>
+      </c>
+      <c r="K15">
+        <v>347804.97800025</v>
+      </c>
+      <c r="L15">
+        <v>9890.0380592300007</v>
+      </c>
+      <c r="M15">
+        <v>339153.26608760998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>1291.0032898899999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4688.1328015199997</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1240.7905245500001</v>
+      </c>
+      <c r="E16">
+        <v>3540.7309082900001</v>
+      </c>
+      <c r="F16">
+        <v>1738.3600986700001</v>
+      </c>
+      <c r="G16">
+        <v>4241.0637949100001</v>
+      </c>
+      <c r="H16">
+        <v>15369.158787730001</v>
+      </c>
+      <c r="I16">
+        <v>372208.79949091998</v>
+      </c>
+      <c r="J16">
+        <v>12045.90789592</v>
+      </c>
+      <c r="K16">
+        <v>263008.77476007998</v>
+      </c>
+      <c r="L16">
+        <v>11572.177133499999</v>
+      </c>
+      <c r="M16">
+        <v>339961.58997859998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.17962653000000001</v>
+      </c>
+      <c r="C19">
+        <v>-5.805548E-2</v>
+      </c>
+      <c r="D19">
+        <v>-0.39840008999999998</v>
+      </c>
+      <c r="E19">
+        <v>-6.8866800000000006E-2</v>
+      </c>
+      <c r="F19">
+        <v>-0.17021447000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-8.0244490000000002E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.36185437999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.70099792000000005</v>
+      </c>
+      <c r="J19">
+        <v>0.56140047000000004</v>
+      </c>
+      <c r="K19">
+        <v>1.03633134</v>
+      </c>
+      <c r="L19">
+        <v>0.19585411999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.50066907999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-0.1622594</v>
+      </c>
+      <c r="C20">
+        <v>-9.4051609999999994E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-0.31440242000000002</v>
+      </c>
+      <c r="E20">
+        <v>-5.2223119999999998E-2</v>
+      </c>
+      <c r="F20">
+        <v>-0.28632066</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-5.8789470000000003E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.36405304999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.73686567999999997</v>
+      </c>
+      <c r="J20">
+        <v>0.37919146999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.94142780000000004</v>
+      </c>
+      <c r="L20">
+        <v>0.22843969</v>
+      </c>
+      <c r="M20">
+        <v>0.56985238000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-0.32465040000000001</v>
+      </c>
+      <c r="C21">
+        <v>-6.9112720000000002E-2</v>
+      </c>
+      <c r="D21">
+        <v>-0.25606142999999998</v>
+      </c>
+      <c r="E21">
+        <v>-7.8594330000000004E-2</v>
+      </c>
+      <c r="F21">
+        <v>-0.25204478000000002</v>
+      </c>
+      <c r="G21">
+        <v>-2.499148E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.26534418999999998</v>
+      </c>
+      <c r="I21">
+        <v>0.78035385000000002</v>
+      </c>
+      <c r="J21">
+        <v>0.30159005</v>
+      </c>
+      <c r="K21">
+        <v>1.02089524</v>
+      </c>
+      <c r="L21">
+        <v>0.24041635</v>
+      </c>
+      <c r="M21">
+        <v>0.65811545000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0.63534844000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.35167167999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.62150766000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.35373420999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.69568026999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.34915806999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.04897073</v>
+      </c>
+      <c r="I24">
+        <v>7.1317802600000002</v>
+      </c>
+      <c r="J24">
+        <v>1.1258386300000001</v>
+      </c>
+      <c r="K24">
+        <v>6.3363914699999997</v>
+      </c>
+      <c r="L24">
+        <v>0.82693890000000003</v>
+      </c>
+      <c r="M24">
+        <v>5.38170036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0.60765780999999996</v>
+      </c>
+      <c r="C25">
+        <v>0.37094576000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.62718220000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.39467305000000003</v>
+      </c>
+      <c r="F25">
+        <v>0.66449731000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.41269049000000002</v>
+      </c>
+      <c r="H25">
+        <v>1.02824925</v>
+      </c>
+      <c r="I25">
+        <v>7.2560817599999998</v>
+      </c>
+      <c r="J25">
+        <v>0.84562472</v>
+      </c>
+      <c r="K25">
+        <v>5.3542416399999997</v>
+      </c>
+      <c r="L25">
+        <v>0.79124141999999997</v>
+      </c>
+      <c r="M25">
+        <v>5.4862242400000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>0.49354693999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.48053757000000002</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.46592612999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.52465227999999997</v>
+      </c>
+      <c r="F26">
+        <v>0.69916595000000004</v>
+      </c>
+      <c r="G26">
+        <v>0.36972799000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.95737116</v>
+      </c>
+      <c r="I26">
+        <v>6.3412215099999996</v>
+      </c>
+      <c r="J26">
+        <v>0.75771657999999997</v>
+      </c>
+      <c r="K26">
+        <v>5.6299179600000002</v>
+      </c>
+      <c r="L26">
+        <v>0.89337405999999997</v>
+      </c>
+      <c r="M26">
+        <v>5.9071999699999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M6"/>
+  <dimension ref="A2:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11715,82 +13894,689 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
+      <c r="B4">
+        <v>3204.5828160599999</v>
+      </c>
+      <c r="C4">
+        <v>12000.253115539999</v>
+      </c>
+      <c r="D4">
+        <v>1956.3197623900001</v>
+      </c>
+      <c r="E4">
+        <v>9759.8077140200003</v>
+      </c>
+      <c r="F4">
+        <v>2737.8321783699998</v>
+      </c>
+      <c r="G4">
+        <v>8051.2311659999996</v>
+      </c>
+      <c r="H4">
+        <v>21844.08553394</v>
+      </c>
+      <c r="I4" s="1">
+        <v>56130.114416930002</v>
+      </c>
+      <c r="J4">
+        <v>12062.572221459999</v>
+      </c>
+      <c r="K4">
+        <v>54235.695586319998</v>
+      </c>
+      <c r="L4">
+        <v>10545.969654160001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>58949.450330419997</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5">
+        <v>3442.4184205800002</v>
+      </c>
+      <c r="C5">
+        <v>9352.1078442399994</v>
+      </c>
+      <c r="D5">
+        <v>3334.7019315100001</v>
+      </c>
+      <c r="E5">
+        <v>12500.375062859999</v>
+      </c>
+      <c r="F5">
+        <v>2108.99701585</v>
+      </c>
+      <c r="G5">
+        <v>11062.38604051</v>
+      </c>
+      <c r="H5">
+        <v>12072.625052380001</v>
+      </c>
+      <c r="I5">
+        <v>74208.157189439997</v>
+      </c>
+      <c r="J5">
+        <v>18504.664433919999</v>
+      </c>
+      <c r="K5">
+        <v>74375.577724820003</v>
+      </c>
+      <c r="L5">
+        <v>11579.710876069999</v>
+      </c>
+      <c r="M5">
+        <v>62021.631501809999</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>2615.7659546999998</v>
+      </c>
+      <c r="C6">
+        <v>9756.0172404900004</v>
+      </c>
+      <c r="D6">
+        <v>2663.0627686900002</v>
+      </c>
+      <c r="E6">
+        <v>6748.7191499999999</v>
+      </c>
+      <c r="F6">
+        <v>2486.33403026</v>
+      </c>
+      <c r="G6">
+        <v>11470.767360559999</v>
+      </c>
+      <c r="H6">
+        <v>12440.699507630001</v>
+      </c>
+      <c r="I6">
+        <v>59161.684048520001</v>
+      </c>
+      <c r="J6">
+        <v>11948.78791352</v>
+      </c>
+      <c r="K6">
+        <v>47572.837323500004</v>
+      </c>
+      <c r="L6">
+        <v>8761.8223576399996</v>
+      </c>
+      <c r="M6">
+        <v>61876.534667929998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9">
+        <v>-575.62808094000002</v>
+      </c>
+      <c r="C9">
+        <v>-696.68041988000004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-779.39796744</v>
+      </c>
+      <c r="E9">
+        <v>-672.12669511000001</v>
+      </c>
+      <c r="F9">
+        <v>-466.01864490999998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-646.06693315999996</v>
+      </c>
+      <c r="H9">
+        <v>7858.6955462100004</v>
+      </c>
+      <c r="I9" s="1">
+        <v>39681.460459560003</v>
+      </c>
+      <c r="J9">
+        <v>12703.23504324</v>
+      </c>
+      <c r="K9">
+        <v>117029.20256583</v>
+      </c>
+      <c r="L9">
+        <v>3552.31619245</v>
+      </c>
+      <c r="M9" s="1">
+        <v>35489.035393290003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B10" s="1">
+        <v>-558.56473450999999</v>
+      </c>
+      <c r="C10">
+        <v>-879.58077933000004</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1048.4383679</v>
+      </c>
+      <c r="E10">
+        <v>-652.80854120000004</v>
+      </c>
+      <c r="F10">
+        <v>-603.84941157000003</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-650.35184964999996</v>
+      </c>
+      <c r="H10">
+        <v>5707.58207158</v>
+      </c>
+      <c r="I10">
+        <v>66835.931035529997</v>
+      </c>
+      <c r="J10">
+        <v>13778.579258629999</v>
+      </c>
+      <c r="K10">
+        <v>157537.57112931</v>
+      </c>
+      <c r="L10">
+        <v>4345.0092734099999</v>
+      </c>
+      <c r="M10">
+        <v>44228.057474890004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-849.20947390000003</v>
+      </c>
+      <c r="C11">
+        <v>-674.26492860999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-681.90764944</v>
+      </c>
+      <c r="E11">
+        <v>-530.41109314000005</v>
+      </c>
+      <c r="F11">
+        <v>-626.66750920000004</v>
+      </c>
+      <c r="G11">
+        <v>-286.67149466000001</v>
+      </c>
+      <c r="H11">
+        <v>2853.1301237399998</v>
+      </c>
+      <c r="I11">
+        <v>46304.486822699997</v>
+      </c>
+      <c r="J11">
+        <v>7978.4255397500001</v>
+      </c>
+      <c r="K11">
+        <v>86081.540398340003</v>
+      </c>
+      <c r="L11">
+        <v>3529.22084709</v>
+      </c>
+      <c r="M11">
+        <v>44566.142683949998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>2036.0266799799999</v>
+      </c>
+      <c r="C14">
+        <v>4220.1491296699996</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1215.86772354</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3452.3778399100001</v>
+      </c>
+      <c r="F14">
+        <v>1904.6558316600001</v>
+      </c>
+      <c r="G14">
+        <v>2811.1523678200001</v>
+      </c>
+      <c r="H14">
+        <v>23144.126628049999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>410407.82669675001</v>
+      </c>
+      <c r="J14">
+        <v>18093.213726639999</v>
+      </c>
+      <c r="K14">
+        <v>103046.29325346999</v>
+      </c>
+      <c r="L14">
+        <v>6457.7487014400003</v>
+      </c>
+      <c r="M14" s="1">
+        <v>42023.496269540003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>2091.81245033</v>
+      </c>
+      <c r="C15">
+        <v>3469.1247073599998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2091.4656785699999</v>
+      </c>
+      <c r="E15">
+        <v>4933.56109259</v>
+      </c>
+      <c r="F15">
+        <v>1401.4228492899999</v>
+      </c>
+      <c r="G15">
+        <v>4565.3415331699998</v>
+      </c>
+      <c r="H15">
+        <v>15762.53606971</v>
+      </c>
+      <c r="I15">
+        <v>565658.02384740999</v>
+      </c>
+      <c r="J15">
+        <v>20138.432895419999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>125592.93361809</v>
+      </c>
+      <c r="L15">
+        <v>6674.4486541400001</v>
+      </c>
+      <c r="M15">
+        <v>46402.406844329998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>1291.0032898899999</v>
+      </c>
+      <c r="C16">
+        <v>4688.1328015199997</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1240.7905245500001</v>
+      </c>
+      <c r="E16">
+        <v>3540.7309082900001</v>
+      </c>
+      <c r="F16">
+        <v>1738.3600986700001</v>
+      </c>
+      <c r="G16">
+        <v>4241.0637949100001</v>
+      </c>
+      <c r="H16">
+        <v>11450.48903595</v>
+      </c>
+      <c r="I16">
+        <v>383490.45769985003</v>
+      </c>
+      <c r="J16">
+        <v>12011.5973034</v>
+      </c>
+      <c r="K16" s="1">
+        <v>75510.582552060005</v>
+      </c>
+      <c r="L16">
+        <v>5867.7484839400004</v>
+      </c>
+      <c r="M16">
+        <v>47050.830884219999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.17962653000000001</v>
+      </c>
+      <c r="C19">
+        <v>-5.805548E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.39840008999999998</v>
+      </c>
+      <c r="E19">
+        <v>-6.8866800000000006E-2</v>
+      </c>
+      <c r="F19">
+        <v>-0.17021447000000001</v>
+      </c>
+      <c r="G19">
+        <v>-8.0244490000000002E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.35976308000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.70695492000000004</v>
+      </c>
+      <c r="J19">
+        <v>1.0531116300000001</v>
+      </c>
+      <c r="K19">
+        <v>2.1577892799999998</v>
+      </c>
+      <c r="L19">
+        <v>0.33684111999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.60202487000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-0.1622594</v>
+      </c>
+      <c r="C20">
+        <v>-9.4051609999999994E-2</v>
+      </c>
+      <c r="D20">
+        <v>-0.31440242000000002</v>
+      </c>
+      <c r="E20">
+        <v>-5.2223119999999998E-2</v>
+      </c>
+      <c r="F20">
+        <v>-0.28632066</v>
+      </c>
+      <c r="G20">
+        <v>-5.8789470000000003E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.47277058999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.90065477000000005</v>
+      </c>
+      <c r="J20">
+        <v>0.74460033000000003</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2.1181357599999999</v>
+      </c>
+      <c r="L20">
+        <v>0.37522605999999997</v>
+      </c>
+      <c r="M20">
+        <v>0.71310697000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-0.32465040000000001</v>
+      </c>
+      <c r="C21">
+        <v>-6.9112720000000002E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.25606142999999998</v>
+      </c>
+      <c r="E21">
+        <v>-7.8594330000000004E-2</v>
+      </c>
+      <c r="F21">
+        <v>-0.25204478000000002</v>
+      </c>
+      <c r="G21">
+        <v>-2.499148E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.2293384</v>
+      </c>
+      <c r="I21">
+        <v>0.78267695999999998</v>
+      </c>
+      <c r="J21">
+        <v>0.66771840000000005</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.8094682900000001</v>
+      </c>
+      <c r="L21">
+        <v>0.40279530000000002</v>
+      </c>
+      <c r="M21">
+        <v>0.72024303000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0.63534844000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.35167167999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.62150766000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.35373420999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.69568026999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.34915806999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.05951456</v>
+      </c>
+      <c r="I24">
+        <v>7.3117226100000003</v>
+      </c>
+      <c r="J24">
+        <v>1.4999465599999999</v>
+      </c>
+      <c r="K24">
+        <v>1.89997182</v>
+      </c>
+      <c r="L24">
+        <v>0.61234281000000002</v>
+      </c>
+      <c r="M24">
+        <v>0.71287341999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0.60765780999999996</v>
+      </c>
+      <c r="C25">
+        <v>0.37094576000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.62718220000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.39467305000000003</v>
+      </c>
+      <c r="F25">
+        <v>0.66449731000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.41269049000000002</v>
+      </c>
+      <c r="H25">
+        <v>1.3056428099999999</v>
+      </c>
+      <c r="I25">
+        <v>7.6225855100000004</v>
+      </c>
+      <c r="J25">
+        <v>1.08828955</v>
+      </c>
+      <c r="K25">
+        <v>1.68863137</v>
+      </c>
+      <c r="L25">
+        <v>0.57639165000000003</v>
+      </c>
+      <c r="M25">
+        <v>0.74816488999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>0.49354693999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.48053757000000002</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.46592612999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.52465227999999997</v>
+      </c>
+      <c r="F26">
+        <v>0.69916595000000004</v>
+      </c>
+      <c r="G26">
+        <v>0.36972799000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.92040555999999996</v>
+      </c>
+      <c r="I26">
+        <v>6.4820747399999998</v>
+      </c>
+      <c r="J26">
+        <v>1.0052565499999999</v>
+      </c>
+      <c r="K26">
+        <v>1.58726254</v>
+      </c>
+      <c r="L26">
+        <v>0.66969498000000005</v>
+      </c>
+      <c r="M26">
+        <v>0.76039860999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Promedios réplicas todo/valores de alfa y rho todo.xlsx
+++ b/Promedios réplicas todo/valores de alfa y rho todo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="4200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="4200"/>
   </bookViews>
   <sheets>
     <sheet name="J23101 RFP Y pLux76 RFP" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="85">
   <si>
     <t xml:space="preserve">control gluc </t>
   </si>
@@ -246,10 +246,49 @@
     <t>plux-std-std</t>
   </si>
   <si>
-    <t>plux-ptet-std</t>
+    <t>plux-plac-std</t>
   </si>
   <si>
-    <t>plux-plac-std</t>
+    <t>std-std</t>
+  </si>
+  <si>
+    <t>Gluco</t>
+  </si>
+  <si>
+    <t>Glice</t>
+  </si>
+  <si>
+    <t>pLux-std</t>
+  </si>
+  <si>
+    <t>pLux-pTe</t>
+  </si>
+  <si>
+    <t>pLux-pLa</t>
+  </si>
+  <si>
+    <t>plasmido</t>
+  </si>
+  <si>
+    <t>medio</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>ay</t>
+  </si>
+  <si>
+    <t>rho r</t>
+  </si>
+  <si>
+    <t>rho y</t>
+  </si>
+  <si>
+    <t>promedio</t>
   </si>
 </sst>
 </file>
@@ -436,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -477,6 +516,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,7 +2019,7 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="24" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H4" s="9">
         <v>1</v>
@@ -2148,7 +2188,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
@@ -2276,36 +2316,751 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="6">
+        <v>26478.73</v>
+      </c>
+      <c r="G20" s="6">
+        <v>25088.2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>144799.95000000001</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="J20" s="6">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="6">
+        <v>94953.19</v>
+      </c>
+      <c r="G21" s="6">
+        <v>167587.28</v>
+      </c>
+      <c r="H21" s="6">
+        <v>677166.04</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="J21" s="6">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="6">
+        <v>25192.68</v>
+      </c>
+      <c r="G22" s="6">
+        <v>37961.199999999997</v>
+      </c>
+      <c r="H22" s="6">
+        <v>179544.19</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1.51</v>
+      </c>
+      <c r="J22" s="6">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23">
+        <v>71750.679999999993</v>
+      </c>
+      <c r="G23">
+        <v>177972.82</v>
+      </c>
+      <c r="H23">
+        <v>642180.87</v>
+      </c>
+      <c r="I23">
+        <v>2.48</v>
+      </c>
+      <c r="J23">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24">
+        <v>9615.25</v>
+      </c>
+      <c r="G24">
+        <v>21494.9</v>
+      </c>
+      <c r="H24">
+        <v>94168.31</v>
+      </c>
+      <c r="I24">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J24">
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25">
+        <v>30392.63</v>
+      </c>
+      <c r="G25">
+        <v>81836.97</v>
+      </c>
+      <c r="H25">
+        <v>307359.02</v>
+      </c>
+      <c r="I25">
+        <v>2.69</v>
+      </c>
+      <c r="J25">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26">
+        <v>28665.06</v>
+      </c>
+      <c r="G26">
+        <v>18035.41</v>
+      </c>
+      <c r="H26">
+        <v>119062.2</v>
+      </c>
+      <c r="I26">
+        <v>0.63</v>
+      </c>
+      <c r="J26">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27">
+        <v>106629.03</v>
+      </c>
+      <c r="G27">
+        <v>166377.04999999999</v>
+      </c>
+      <c r="H27">
+        <v>702865.39</v>
+      </c>
+      <c r="I27">
+        <v>1.56</v>
+      </c>
+      <c r="J27">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28">
+        <v>16288.9</v>
+      </c>
+      <c r="G28">
+        <v>18901.23</v>
+      </c>
+      <c r="H28">
+        <v>108153.83</v>
+      </c>
+      <c r="I28">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J28">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29">
+        <v>66002.2</v>
+      </c>
+      <c r="G29">
+        <v>140450.28</v>
+      </c>
+      <c r="H29">
+        <v>586427.19999999995</v>
+      </c>
+      <c r="I29">
+        <v>2.13</v>
+      </c>
+      <c r="J29">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30">
+        <v>19102.29</v>
+      </c>
+      <c r="G30">
+        <v>24891.040000000001</v>
+      </c>
+      <c r="H30">
+        <v>137218.44</v>
+      </c>
+      <c r="I30">
+        <v>1.3</v>
+      </c>
+      <c r="J30">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31">
+        <v>38209.26</v>
+      </c>
+      <c r="G31">
+        <v>62903.45</v>
+      </c>
+      <c r="H31">
+        <v>366378.1</v>
+      </c>
+      <c r="I31">
+        <v>1.65</v>
+      </c>
+      <c r="J31">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32">
+        <v>25445.49</v>
+      </c>
+      <c r="G32">
+        <v>24556.32</v>
+      </c>
+      <c r="H32">
+        <v>186695.63</v>
+      </c>
+      <c r="I32">
+        <v>0.97</v>
+      </c>
+      <c r="J32">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33">
+        <v>127129.48</v>
+      </c>
+      <c r="G33">
+        <v>220983.31</v>
+      </c>
+      <c r="H33">
+        <v>1256111.3400000001</v>
+      </c>
+      <c r="I33">
+        <v>1.74</v>
+      </c>
+      <c r="J33">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34">
+        <v>23580.67</v>
+      </c>
+      <c r="G34">
+        <v>30754.77</v>
+      </c>
+      <c r="H34">
+        <v>231790.05</v>
+      </c>
+      <c r="I34">
+        <v>1.3</v>
+      </c>
+      <c r="J34">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35">
+        <v>76632.98</v>
+      </c>
+      <c r="G35">
+        <v>195050.58</v>
+      </c>
+      <c r="H35">
+        <v>1028739.96</v>
+      </c>
+      <c r="I35">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J35">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36">
+        <v>16176.16</v>
+      </c>
+      <c r="G36">
+        <v>24406.5</v>
+      </c>
+      <c r="H36">
+        <v>172655.47</v>
+      </c>
+      <c r="I36">
+        <v>1.51</v>
+      </c>
+      <c r="J36">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37">
+        <v>20664.990000000002</v>
+      </c>
+      <c r="G37">
+        <v>36520.35</v>
+      </c>
+      <c r="H37">
+        <v>286096.46999999997</v>
+      </c>
+      <c r="I37">
+        <v>1.77</v>
+      </c>
+      <c r="J37">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38">
+        <v>25185.23</v>
+      </c>
+      <c r="G38">
+        <v>18908.57</v>
+      </c>
+      <c r="H38">
+        <v>29567.86</v>
+      </c>
+      <c r="I38">
+        <v>0.75</v>
+      </c>
+      <c r="J38">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39">
+        <v>108647.6</v>
+      </c>
+      <c r="G39">
+        <v>164523.91</v>
+      </c>
+      <c r="H39">
+        <v>576089.48</v>
+      </c>
+      <c r="I39">
+        <v>1.51</v>
+      </c>
+      <c r="J39">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40">
+        <v>18374.689999999999</v>
+      </c>
+      <c r="G40">
+        <v>18288.330000000002</v>
+      </c>
+      <c r="H40">
+        <v>31010.04</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41">
+        <v>72711.62</v>
+      </c>
+      <c r="G41">
+        <v>159578.95000000001</v>
+      </c>
+      <c r="H41">
+        <v>492303.23</v>
+      </c>
+      <c r="I41">
+        <v>2.19</v>
+      </c>
+      <c r="J41">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42">
+        <v>24145.97</v>
+      </c>
+      <c r="G42">
+        <v>13310.7</v>
+      </c>
+      <c r="H42">
+        <v>24905.54</v>
+      </c>
+      <c r="I42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J42">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43">
+        <v>56294.12</v>
+      </c>
+      <c r="G43">
+        <v>56584.480000000003</v>
+      </c>
+      <c r="H43">
+        <v>367020.58</v>
+      </c>
+      <c r="I43">
+        <v>1.01</v>
+      </c>
+      <c r="J43">
+        <v>6.52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Promedios réplicas todo/valores de alfa y rho todo.xlsx
+++ b/Promedios réplicas todo/valores de alfa y rho todo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="4200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="4200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="J23101 RFP Y pLux76 RFP" sheetId="1" r:id="rId1"/>
@@ -833,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
@@ -1938,7 +1938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -3071,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3855,6 +3855,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Promedios réplicas todo/valores de alfa y rho todo.xlsx
+++ b/Promedios réplicas todo/valores de alfa y rho todo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="4200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="4200" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="J23101 RFP Y pLux76 RFP" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="87">
   <si>
     <t xml:space="preserve">control gluc </t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>promedio</t>
+  </si>
+  <si>
+    <t>rho RFP 2</t>
+  </si>
+  <si>
+    <t>rho YFP 2</t>
   </si>
 </sst>
 </file>
@@ -831,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M29"/>
+  <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:K26"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1604,9 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1607,24 +1615,232 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-0.45840925999999999</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.12875244999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.17326108000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.24748328999999999</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.1514789</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.23671253</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.13153129999999999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.17592653</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.6394976</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.28558742999999998</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>-0.73338448000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.1061735</v>
+      </c>
+      <c r="D30">
+        <v>0.21143096</v>
+      </c>
+      <c r="E30">
+        <v>0.27713815000000003</v>
+      </c>
+      <c r="F30">
+        <v>0.17476248</v>
+      </c>
+      <c r="G30">
+        <v>0.23950163999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.13268374999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.18960144000000001</v>
+      </c>
+      <c r="J30">
+        <v>0.58975504999999995</v>
+      </c>
+      <c r="K30">
+        <v>0.32414767999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>-0.25898706999999999</v>
+      </c>
+      <c r="C31">
+        <v>-0.22929289999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.22826046999999999</v>
+      </c>
+      <c r="E31">
+        <v>0.26625854999999998</v>
+      </c>
+      <c r="F31">
+        <v>0.18139717</v>
+      </c>
+      <c r="G31">
+        <v>0.17168997999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.14135955</v>
+      </c>
+      <c r="I31">
+        <v>0.12765048000000001</v>
+      </c>
+      <c r="J31">
+        <v>0.53444758999999997</v>
+      </c>
+      <c r="K31">
+        <v>0.15417249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>-2.18145678</v>
+      </c>
+      <c r="C34">
+        <v>7.7668426000000004</v>
+      </c>
+      <c r="D34">
+        <v>5.7716365700000001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4.0406768700000004</v>
+      </c>
+      <c r="F34">
+        <v>6.6015796</v>
+      </c>
+      <c r="G34">
+        <v>4.2245333599999997</v>
+      </c>
+      <c r="H34">
+        <v>7.6027528599999998</v>
+      </c>
+      <c r="I34">
+        <v>5.6841910100000002</v>
+      </c>
+      <c r="J34">
+        <v>1.56372752</v>
+      </c>
+      <c r="K34">
+        <v>3.5015546799999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>-1.3635412600000001</v>
+      </c>
+      <c r="C35">
+        <v>9.4185464799999998</v>
+      </c>
+      <c r="D35">
+        <v>4.7296762399999999</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3.6083087699999998</v>
+      </c>
+      <c r="F35">
+        <v>5.7220519799999998</v>
+      </c>
+      <c r="G35">
+        <v>4.17533669</v>
+      </c>
+      <c r="H35">
+        <v>7.5367182100000001</v>
+      </c>
+      <c r="I35">
+        <v>5.2742214499999998</v>
+      </c>
+      <c r="J35">
+        <v>1.69561922</v>
+      </c>
+      <c r="K35">
+        <v>3.0850135700000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>-3.8611966099999999</v>
+      </c>
+      <c r="C36">
+        <v>-4.3612339799999997</v>
+      </c>
+      <c r="D36">
+        <v>4.3809600299999998</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3.7557478899999999</v>
+      </c>
+      <c r="F36">
+        <v>5.51276528</v>
+      </c>
+      <c r="G36">
+        <v>5.8244516700000002</v>
+      </c>
+      <c r="H36">
+        <v>7.0741593099999998</v>
+      </c>
+      <c r="I36">
+        <v>7.83389164</v>
+      </c>
+      <c r="J36">
+        <v>1.87109087</v>
+      </c>
+      <c r="K36">
+        <v>6.4862415499999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3069,10 +3285,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M29"/>
+  <dimension ref="A2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:K26"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3827,31 +4043,263 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="3"/>
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-0.28272129000000001</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-0.16508431000000001</v>
+      </c>
+      <c r="D29">
+        <v>7.3186840000000003E-2</v>
+      </c>
+      <c r="E29">
+        <v>8.5866919999999999E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.6970944</v>
+      </c>
+      <c r="G29">
+        <v>0.86300484</v>
+      </c>
+      <c r="H29">
+        <v>0.34496135999999999</v>
+      </c>
+      <c r="I29">
+        <v>9.829214E-2</v>
+      </c>
+      <c r="J29">
+        <v>0.33955464000000002</v>
+      </c>
+      <c r="K29">
+        <v>9.6687869999999995E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>-0.26702429</v>
+      </c>
+      <c r="C30">
+        <v>-0.25354545000000001</v>
+      </c>
+      <c r="D30">
+        <v>7.9411659999999995E-2</v>
+      </c>
+      <c r="E30">
+        <v>8.7319220000000003E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.71329138000000003</v>
+      </c>
+      <c r="G30">
+        <v>0.91412391000000004</v>
+      </c>
+      <c r="H30">
+        <v>0.35405135999999998</v>
+      </c>
+      <c r="I30">
+        <v>0.10155146</v>
+      </c>
+      <c r="J30">
+        <v>0.36209795</v>
+      </c>
+      <c r="K30">
+        <v>0.11815607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>-0.65779032999999998</v>
+      </c>
+      <c r="C31">
+        <v>-0.14382376999999999</v>
+      </c>
+      <c r="D31">
+        <v>2.8076940000000002E-2</v>
+      </c>
+      <c r="E31">
+        <v>9.3459429999999996E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.62393960999999998</v>
+      </c>
+      <c r="G31">
+        <v>1.0799983500000001</v>
+      </c>
+      <c r="H31">
+        <v>0.27715916000000002</v>
+      </c>
+      <c r="I31">
+        <v>0.12306048999999999</v>
+      </c>
+      <c r="J31">
+        <v>0.24235841</v>
+      </c>
+      <c r="K31">
+        <v>0.12074482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>-3.5370523899999999</v>
+      </c>
+      <c r="C34">
+        <v>-6.0575107499999996</v>
+      </c>
+      <c r="D34">
+        <v>13.66365854</v>
+      </c>
+      <c r="E34" s="1">
+        <v>11.645927929999999</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.4345259400000001</v>
+      </c>
+      <c r="G34">
+        <v>1.1587420500000001</v>
+      </c>
+      <c r="H34">
+        <v>2.8988753699999998</v>
+      </c>
+      <c r="I34">
+        <v>10.173753870000001</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2.9450341299999998</v>
+      </c>
+      <c r="K34">
+        <v>10.34255851</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>-3.74497766</v>
+      </c>
+      <c r="C35">
+        <v>-3.9440660699999999</v>
+      </c>
+      <c r="D35">
+        <v>12.59260944</v>
+      </c>
+      <c r="E35" s="1">
+        <v>11.452231749999999</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.4019516000000001</v>
+      </c>
+      <c r="G35">
+        <v>1.0939436</v>
+      </c>
+      <c r="H35">
+        <v>2.8244489800000001</v>
+      </c>
+      <c r="I35">
+        <v>9.8472244199999999</v>
+      </c>
+      <c r="J35">
+        <v>2.7616836500000002</v>
+      </c>
+      <c r="K35">
+        <v>8.4633821200000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>-1.5202412700000001</v>
+      </c>
+      <c r="C36">
+        <v>-6.9529536600000004</v>
+      </c>
+      <c r="D36">
+        <v>35.616423230000002</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10.69983032</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.6027192100000001</v>
+      </c>
+      <c r="G36">
+        <v>0.92592733999999999</v>
+      </c>
+      <c r="H36">
+        <v>3.60803517</v>
+      </c>
+      <c r="I36">
+        <v>8.1260847300000005</v>
+      </c>
+      <c r="J36">
+        <v>4.1261204500000002</v>
+      </c>
+      <c r="K36">
+        <v>8.2819286900000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3863,8 +4311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4649,7 +5097,9 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4658,141 +5108,239 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-0.64102201000000003</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-0.19468515</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8.0067840000000001E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.11217303000000001</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.31064089</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.43334470000000003</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.49865092</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.16355228999999999</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.70209942999999997</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1.1356954100000001</v>
+      </c>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>-0.50129360000000001</v>
+      </c>
+      <c r="C30">
+        <v>-0.13231994999999999</v>
+      </c>
+      <c r="D30">
+        <v>7.1474410000000002E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.12526092</v>
+      </c>
+      <c r="F30">
+        <v>0.27719839000000002</v>
+      </c>
+      <c r="G30">
+        <v>0.45166687</v>
+      </c>
+      <c r="H30">
+        <v>0.44841577999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.17582840999999999</v>
+      </c>
+      <c r="J30">
+        <v>0.68419322000000005</v>
+      </c>
+      <c r="K30">
+        <v>1.2543506</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>-0.54957515999999995</v>
+      </c>
+      <c r="C31">
+        <v>-0.15864017999999999</v>
+      </c>
+      <c r="D31">
+        <v>7.6055200000000003E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.11580097</v>
+      </c>
+      <c r="F31">
+        <v>0.28099521999999999</v>
+      </c>
+      <c r="G31">
+        <v>0.47386507999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.39802486999999998</v>
+      </c>
+      <c r="I31">
+        <v>0.18133394999999999</v>
+      </c>
+      <c r="J31">
+        <v>0.66422685999999997</v>
+      </c>
+      <c r="K31">
+        <v>1.1399930599999999</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>-1.56000885</v>
+      </c>
+      <c r="C34">
+        <v>-5.1364986200000002</v>
+      </c>
+      <c r="D34">
+        <v>12.48940867</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8.9147989899999995</v>
+      </c>
+      <c r="F34">
+        <v>3.21915124</v>
+      </c>
+      <c r="G34">
+        <v>2.30763176</v>
+      </c>
+      <c r="H34">
+        <v>2.0054109200000001</v>
+      </c>
+      <c r="I34">
+        <v>6.1142524700000003</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1.42429969</v>
+      </c>
+      <c r="K34">
+        <v>0.88051778000000003</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>-1.9948389399999999</v>
+      </c>
+      <c r="C35">
+        <v>-7.5574395599999997</v>
+      </c>
+      <c r="D35">
+        <v>13.9910216</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7.9833358099999998</v>
+      </c>
+      <c r="F35">
+        <v>3.6075245300000001</v>
+      </c>
+      <c r="G35">
+        <v>2.21402112</v>
+      </c>
+      <c r="H35">
+        <v>2.2300731499999999</v>
+      </c>
+      <c r="I35">
+        <v>5.6873629799999996</v>
+      </c>
+      <c r="J35">
+        <v>1.4615754299999999</v>
+      </c>
+      <c r="K35">
+        <v>0.79722528000000004</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>-1.81958734</v>
+      </c>
+      <c r="C36">
+        <v>-6.3035732900000001</v>
+      </c>
+      <c r="D36">
+        <v>13.1483457</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8.6355064099999996</v>
+      </c>
+      <c r="F36">
+        <v>3.5587793699999999</v>
+      </c>
+      <c r="G36">
+        <v>2.11030534</v>
+      </c>
+      <c r="H36">
+        <v>2.5124058100000002</v>
+      </c>
+      <c r="I36">
+        <v>5.5146872599999996</v>
+      </c>
+      <c r="J36">
+        <v>1.50550973</v>
+      </c>
+      <c r="K36">
+        <v>0.87719831999999998</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -4806,7 +5354,6 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -4820,7 +5367,9 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -4834,7 +5383,9 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -4848,7 +5399,6 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -4862,7 +5412,9 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -5419,6 +5971,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5426,8 +5979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M154"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6168,7 +6721,9 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -6180,49 +6735,114 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-0.24467341000000001</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-0.22982280999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5.9861030000000003E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9.6440540000000005E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.19041101999999999</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.28478576999999999</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.23684231</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.16077370999999999</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.55008584999999999</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.84450459</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>-0.43088309000000002</v>
+      </c>
+      <c r="C30">
+        <v>-0.14245415</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6.2855300000000003E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8.5873690000000003E-2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.21413315999999999</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.28786676</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.28871047999999999</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.21478195999999999</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.65099149000000001</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.95314144999999995</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>-0.36049350000000002</v>
+      </c>
+      <c r="C31">
+        <v>-6.759424E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5.7619869999999997E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>8.7736969999999997E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.19893058999999999</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.28450721000000001</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.26911051000000002</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.11140904</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.60146082999999995</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.94719140999999996</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -6232,10 +6852,12 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -6245,48 +6867,111 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>-4.0870807500000002</v>
+      </c>
+      <c r="C34">
+        <v>-4.3511782200000004</v>
+      </c>
+      <c r="D34" s="1">
+        <v>16.705359040000001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10.369082840000001</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5.2517967900000002</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3.5114114000000001</v>
+      </c>
+      <c r="H34" s="2">
+        <v>4.2222186300000004</v>
+      </c>
+      <c r="I34" s="2">
+        <v>6.2199223999999997</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1.8178980600000001</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1.18412619</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>-2.3208151300000002</v>
+      </c>
+      <c r="C35">
+        <v>-7.01980249</v>
+      </c>
+      <c r="D35" s="1">
+        <v>15.909556970000001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>11.64501074</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4.6699913899999999</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3.47382934</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3.4636775399999999</v>
+      </c>
+      <c r="I35" s="2">
+        <v>4.6558844099999996</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1.5361183899999999</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1.0491622199999999</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>-2.7739751500000001</v>
+      </c>
+      <c r="C36">
+        <v>-14.794159430000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>17.3551252</v>
+      </c>
+      <c r="E36" s="2">
+        <v>11.397703529999999</v>
+      </c>
+      <c r="F36" s="2">
+        <v>5.0268790799999996</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3.5148494399999999</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3.7159455299999999</v>
+      </c>
+      <c r="I36" s="2">
+        <v>8.9759326599999998</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1.6626186700000001</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1.0557528199999999</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -6299,7 +6984,7 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -6312,7 +6997,6 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -6325,7 +7009,9 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -6338,7 +7024,9 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -6351,7 +7039,6 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -6364,7 +7051,9 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -7819,6 +8508,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
